--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45170</v>
+        <v>45174</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45174</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45183</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx"; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx; "A 30234-2023")</f>
         <v/>
       </c>
     </row>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx"; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx; "A 33548-2023")</f>
         <v/>
       </c>
     </row>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx"; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx; "A 33550-2023")</f>
         <v/>
       </c>
     </row>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx"; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx; "A 30241-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -640,23 +640,23 @@
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png"; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx"; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx"; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx"; "A 30234-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx"; "A 30234-2023")</f>
         <v/>
       </c>
     </row>
@@ -730,23 +730,23 @@
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png"; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx"; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx"; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx"; "A 33548-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx"; "A 33548-2023")</f>
         <v/>
       </c>
     </row>
@@ -818,23 +818,23 @@
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png"; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx"; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx"; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx"; "A 33550-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx"; "A 33550-2023")</f>
         <v/>
       </c>
     </row>
@@ -908,23 +908,23 @@
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png"; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx"; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx"; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx"; "A 30241-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx"; "A 30241-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx"; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png"; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx"; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx"; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx"; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx"; "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx"; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png"; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx"; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx"; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx"; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx"; "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx"; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png"; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx"; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx"; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx"; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx"; "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx"; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx"; "test")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png"; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png"; "test")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx"; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx"; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx"; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx"; "test")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx"; "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx"; "test")</f>
         <v/>
       </c>
     </row>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx")</f>
         <v/>
       </c>
     </row>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx"; "test")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx")</f>
         <v/>
       </c>
     </row>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -655,9 +655,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx")</f>
-        <v/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx"; "A 30234-2023")</t>
+        </is>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -745,9 +746,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx")</f>
-        <v/>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx"; "A 33548-2023")</t>
+        </is>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -833,9 +835,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx")</f>
-        <v/>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx"; "A 33550-2023")</t>
+        </is>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -923,9 +926,10 @@
         <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx")</f>
         <v/>
       </c>
-      <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx")</f>
-        <v/>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx"; "A 30241-2023")</t>
+        </is>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -636,29 +636,28 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx, "A 30234-2023"")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx"; "A 30234-2023")</t>
-        </is>
+      <c r="Y2">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx", "A 30234-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1">
@@ -671,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -727,29 +726,28 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx, "A 33548-2023"")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx"; "A 33548-2023")</t>
-        </is>
+      <c r="Y3">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx", "A 33548-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1">
@@ -762,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -816,29 +814,28 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx, "A 33550-2023"")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
-      <c r="Y4" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx"; "A 33550-2023")</t>
-        </is>
+      <c r="Y4">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx", "A 33550-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1">
@@ -851,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -907,29 +904,28 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx, "A 30241-2023"")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx"; "A 30241-2023")</t>
-        </is>
+      <c r="Y5">
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx", "A 30241-2023")</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1">
@@ -942,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1004,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1123,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1185,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1247,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1309,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1371,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1428,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1485,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1547,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1604,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1661,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1718,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1775,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1832,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1889,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1946,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2003,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2065,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2127,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2189,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2251,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2308,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2365,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2427,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2484,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45183</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -636,7 +636,7 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx, "A 30234-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="T2">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx, "A 33548-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="T3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx, "A 33550-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="T4">
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx, "A 30241-2023"")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="T5">

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45185</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45185</v>
+        <v>45204</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45204</v>
+        <v>45207</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30234-2023.xlsx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 30234-2023.xlsx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30234-2023.png", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 30234-2023.png", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 30234-2023.docx", "A 30234-2023")</f>
         <v/>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33548-2023.xlsx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 33548-2023.xlsx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33548-2023.png", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 33548-2023.png", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 33548-2023.docx", "A 33548-2023")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 33550-2023.xlsx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 33550-2023.xlsx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 33550-2023.png", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 33550-2023.png", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 33550-2023.docx", "A 33550-2023")</f>
         <v/>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/artfynd/A 30241-2023.xlsx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 30241-2023.xlsx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/kartor/A 30241-2023.png", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 30241-2023.png", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomål/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/klagomålsmail/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsyn/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_ALVDALEN/tillsynsmail/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 30241-2023.docx", "A 30241-2023")</f>
         <v/>
       </c>
     </row>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45207</v>
+        <v>45208</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -636,27 +636,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 30234-2023.xlsx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 30234-2023 artfynd.xlsx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 30234-2023.png", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 30234-2023 karta.png", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30234-2023 fsc-klagomål.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30234-2023 fsc-klagomål mail.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 30234-2023 tillsynsbegäran.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 30234-2023.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 30234-2023 tillsynsbegäran mail.docx", "A 30234-2023")</f>
         <v/>
       </c>
     </row>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -726,27 +726,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 33548-2023.xlsx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 33548-2023 artfynd.xlsx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 33548-2023.png", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 33548-2023 karta.png", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33548-2023 fsc-klagomål.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33548-2023 fsc-klagomål mail.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 33548-2023 tillsynsbegäran.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 33548-2023.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 33548-2023 tillsynsbegäran mail.docx", "A 33548-2023")</f>
         <v/>
       </c>
     </row>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -814,27 +814,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 33550-2023.xlsx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 33550-2023 artfynd.xlsx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 33550-2023.png", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 33550-2023 karta.png", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33550-2023 fsc-klagomål.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33550-2023 fsc-klagomål mail.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 33550-2023 tillsynsbegäran.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 33550-2023.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 33550-2023 tillsynsbegäran mail.docx", "A 33550-2023")</f>
         <v/>
       </c>
     </row>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -904,27 +904,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 30241-2023.xlsx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/artfynd/A 30241-2023 artfynd.xlsx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 30241-2023.png", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/kartor/A 30241-2023 karta.png", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30241-2023 fsc-klagomål.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30241-2023 fsc-klagomål mail.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsyn/A 30241-2023 tillsynsbegäran.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 30241-2023.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 30241-2023 tillsynsbegäran mail.docx", "A 30241-2023")</f>
         <v/>
       </c>
     </row>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45208</v>
+        <v>45212</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -644,11 +644,11 @@
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30234-2023 fsc-klagomål.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30234-2023 FSC-klagomål.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30234-2023 fsc-klagomål mail.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30234-2023 FSC-klagomål mail.docx", "A 30234-2023")</f>
         <v/>
       </c>
       <c r="X2">
@@ -656,7 +656,7 @@
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 30234-2023 tillsynsbegäran mail.docx", "A 30234-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 30234-2023 tillsynsbegäran mail.docx", "A 30234-2023")</f>
         <v/>
       </c>
     </row>
@@ -734,11 +734,11 @@
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33548-2023 fsc-klagomål.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33548-2023 FSC-klagomål.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33548-2023 fsc-klagomål mail.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33548-2023 FSC-klagomål mail.docx", "A 33548-2023")</f>
         <v/>
       </c>
       <c r="X3">
@@ -746,7 +746,7 @@
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 33548-2023 tillsynsbegäran mail.docx", "A 33548-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 33548-2023 tillsynsbegäran mail.docx", "A 33548-2023")</f>
         <v/>
       </c>
     </row>
@@ -822,11 +822,11 @@
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33550-2023 fsc-klagomål.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 33550-2023 FSC-klagomål.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33550-2023 fsc-klagomål mail.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 33550-2023 FSC-klagomål mail.docx", "A 33550-2023")</f>
         <v/>
       </c>
       <c r="X4">
@@ -834,7 +834,7 @@
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 33550-2023 tillsynsbegäran mail.docx", "A 33550-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 33550-2023 tillsynsbegäran mail.docx", "A 33550-2023")</f>
         <v/>
       </c>
     </row>
@@ -912,11 +912,11 @@
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30241-2023 fsc-klagomål.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomål/A 30241-2023 FSC-klagomål.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30241-2023 fsc-klagomål mail.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/klagomålsmail/A 30241-2023 FSC-klagomål mail.docx", "A 30241-2023")</f>
         <v/>
       </c>
       <c r="X5">
@@ -924,7 +924,7 @@
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/ti,llsynsmail/A 30241-2023 tillsynsbegäran mail.docx", "A 30241-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/LoggingDetectiveFiles/Logging_2039/tillsynsmail/A 30241-2023 tillsynsbegäran mail.docx", "A 30241-2023")</f>
         <v/>
       </c>
     </row>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45212</v>
+        <v>45221</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45221</v>
+        <v>45224</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45224</v>
+        <v>45233</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45233</v>
+        <v>45243</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>

--- a/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
+++ b/Logging_DALARNAS_LAN/Logging_ALVDALEN/Översikt ÄLVDALEN.xlsx
@@ -572,7 +572,7 @@
         <v>45110</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -670,7 +670,7 @@
         <v>45118</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -760,7 +760,7 @@
         <v>45118</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -848,7 +848,7 @@
         <v>45110</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -938,7 +938,7 @@
         <v>45110</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1000,7 +1000,7 @@
         <v>45112</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>45113</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1119,7 +1119,7 @@
         <v>45113</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1181,7 +1181,7 @@
         <v>45113</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>45113</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1305,7 +1305,7 @@
         <v>45114</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>45114</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1424,7 +1424,7 @@
         <v>45114</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1481,7 +1481,7 @@
         <v>45114</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1543,7 +1543,7 @@
         <v>45114</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1600,7 +1600,7 @@
         <v>45114</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1657,7 +1657,7 @@
         <v>45114</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1714,7 +1714,7 @@
         <v>45114</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1771,7 +1771,7 @@
         <v>45114</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1828,7 +1828,7 @@
         <v>45114</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1885,7 +1885,7 @@
         <v>45118</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         <v>45118</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1999,7 +1999,7 @@
         <v>45119</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2061,7 +2061,7 @@
         <v>45119</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2123,7 +2123,7 @@
         <v>45120</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2185,7 +2185,7 @@
         <v>45121</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2247,7 +2247,7 @@
         <v>45124</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2304,7 +2304,7 @@
         <v>45126</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2361,7 +2361,7 @@
         <v>45131</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2423,7 +2423,7 @@
         <v>45134</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2480,7 +2480,7 @@
         <v>45134</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45243</v>
+        <v>45244</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
